--- a/Analytics/E1/RefereeFirstCard_e1.xlsx
+++ b/Analytics/E1/RefereeFirstCard_e1.xlsx
@@ -7,17 +7,16 @@
   </bookViews>
   <sheets>
     <sheet name="one_and15" r:id="rId3" sheetId="1"/>
-    <sheet name="fifteen_and30" r:id="rId4" sheetId="2"/>
-    <sheet name="thirty_and45" r:id="rId5" sheetId="3"/>
-    <sheet name="fortyfive_and60" r:id="rId6" sheetId="4"/>
-    <sheet name="sixty_and75" r:id="rId7" sheetId="5"/>
-    <sheet name="seventyfive_tomatchend" r:id="rId8" sheetId="6"/>
+    <sheet name="fifteen_and46" r:id="rId4" sheetId="2"/>
+    <sheet name="fortyfive_and60" r:id="rId5" sheetId="3"/>
+    <sheet name="sixty_and75" r:id="rId6" sheetId="4"/>
+    <sheet name="seventyfive_tomatchend" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="100">
   <si>
     <t>Referee</t>
   </si>
@@ -139,16 +138,19 @@
     <t>Rebecca Welch</t>
   </si>
   <si>
+    <t>David Webb</t>
+  </si>
+  <si>
+    <t>Joshua Smith</t>
+  </si>
+  <si>
     <t>James Bell</t>
   </si>
   <si>
     <t>Oliver Langford</t>
   </si>
   <si>
-    <t>David Webb</t>
-  </si>
-  <si>
-    <t>Joshua Smith</t>
+    <t>Samuel Barrott</t>
   </si>
   <si>
     <t>Darren England</t>
@@ -157,6 +159,9 @@
     <t>Matt Donohue</t>
   </si>
   <si>
+    <t>Samuel Allison</t>
+  </si>
+  <si>
     <t>Steve Martin</t>
   </si>
   <si>
@@ -187,9 +192,6 @@
     <t>Thomas Bramall</t>
   </si>
   <si>
-    <t>Samuel Allison</t>
-  </si>
-  <si>
     <t>Lewis Smith</t>
   </si>
   <si>
@@ -223,9 +225,6 @@
     <t>John Brooks</t>
   </si>
   <si>
-    <t>Samuel Barrott</t>
-  </si>
-  <si>
     <t>Adam Herczeg</t>
   </si>
   <si>
@@ -244,6 +243,27 @@
     <t>39</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>Stephen Martin</t>
   </si>
   <si>
@@ -253,46 +273,46 @@
     <t>Dean Whitestone</t>
   </si>
   <si>
+    <t>Darren Bond</t>
+  </si>
+  <si>
+    <t>Jeremy Simpson</t>
+  </si>
+  <si>
     <t>Thomas Kirk</t>
   </si>
   <si>
+    <t>Andy Madley</t>
+  </si>
+  <si>
+    <t>Jarred Gillett</t>
+  </si>
+  <si>
     <t>Robert Jones</t>
   </si>
   <si>
+    <t>Mark Dwyer</t>
+  </si>
+  <si>
     <t>Michael Salisbury</t>
   </si>
   <si>
-    <t>Jeremy Simpson</t>
-  </si>
-  <si>
-    <t>Jarred Gillett</t>
-  </si>
-  <si>
-    <t>Darren Bond</t>
+    <t>Anthony Taylor</t>
+  </si>
+  <si>
+    <t>Peter Bankes</t>
+  </si>
+  <si>
+    <t>Charles Breakspear</t>
   </si>
   <si>
     <t>Craig Pawson</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Mark Dwyer</t>
-  </si>
-  <si>
-    <t>Anthony Taylor</t>
-  </si>
-  <si>
-    <t>Andy Madley</t>
-  </si>
-  <si>
-    <t>Peter Bankes</t>
-  </si>
-  <si>
-    <t>Charles Breakspear</t>
-  </si>
-  <si>
     <t>Paul Tierney</t>
+  </si>
+  <si>
+    <t>Alex Chilowicz</t>
   </si>
   <si>
     <t>Will Finnie</t>
@@ -407,7 +427,7 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -418,7 +438,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -429,7 +449,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -473,7 +493,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -594,7 +614,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -756,10 +776,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="3">
@@ -767,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
@@ -778,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
@@ -789,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
@@ -800,10 +820,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
@@ -811,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -822,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -833,10 +853,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
@@ -847,7 +867,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
@@ -855,10 +875,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +886,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
@@ -877,10 +897,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
@@ -888,10 +908,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
@@ -899,10 +919,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -910,10 +930,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -921,10 +941,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
@@ -932,10 +952,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
@@ -943,10 +963,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="20">
@@ -954,10 +974,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="21">
@@ -965,10 +985,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="22">
@@ -976,10 +996,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
@@ -987,10 +1007,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="24">
@@ -998,10 +1018,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C24" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="25">
@@ -1009,10 +1029,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
@@ -1020,10 +1040,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
@@ -1031,10 +1051,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -1042,10 +1062,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="29">
@@ -1053,10 +1073,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C29" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
@@ -1064,10 +1084,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -1075,10 +1095,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -1086,10 +1106,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
@@ -1097,10 +1117,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
@@ -1108,10 +1128,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -1119,10 +1139,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -1130,10 +1150,10 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -1141,10 +1161,10 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -1152,10 +1172,10 @@
         <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -1163,7 +1183,7 @@
         <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
@@ -1174,9 +1194,86 @@
         <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1207,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -1218,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -1229,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -1240,10 +1337,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -1251,10 +1348,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -1262,10 +1359,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -1273,10 +1370,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -1284,10 +1381,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -1295,10 +1392,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -1306,10 +1403,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -1317,10 +1414,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -1328,10 +1425,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -1339,10 +1436,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -1350,10 +1447,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -1361,10 +1458,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -1372,10 +1469,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -1383,10 +1480,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -1394,10 +1491,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -1405,10 +1502,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1513,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -1427,10 +1524,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -1438,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -1449,7 +1546,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C24" t="n">
         <v>2.0</v>
@@ -1460,7 +1557,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C25" t="n">
         <v>2.0</v>
@@ -1471,7 +1568,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C26" t="n">
         <v>2.0</v>
@@ -1482,10 +1579,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -1493,10 +1590,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1504,10 +1601,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1515,7 +1612,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -1526,7 +1623,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -1537,108 +1634,9 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1669,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -1680,10 +1678,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1691,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -1702,10 +1700,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1713,10 +1711,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1722,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1735,10 +1733,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,10 +1744,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1757,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -1768,10 +1766,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -1779,10 +1777,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1790,10 +1788,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1801,10 +1799,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -1812,10 +1810,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -1823,10 +1821,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -1834,10 +1832,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -1845,10 +1843,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -1856,10 +1854,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -1867,10 +1865,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -1878,7 +1876,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -1889,7 +1887,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -1900,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -1911,7 +1909,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -1922,7 +1920,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -1933,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -1944,53 +1942,9 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2021,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -2032,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -2043,10 +1997,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2054,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -2065,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2076,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2087,7 +2041,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -2098,10 +2052,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -2109,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -2131,7 +2085,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -2142,7 +2096,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -2153,7 +2107,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -2164,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -2175,7 +2129,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -2186,7 +2140,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -2197,7 +2151,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -2219,174 +2173,53 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/E1/RefereeFirstCard_e1.xlsx
+++ b/Analytics/E1/RefereeFirstCard_e1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
   <si>
     <t>Referee</t>
   </si>
@@ -87,18 +87,21 @@
     <t>21</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>Stephen Martin</t>
   </si>
   <si>
+    <t>Matt Donohue</t>
+  </si>
+  <si>
+    <t>Leigh Doughty</t>
+  </si>
+  <si>
     <t>Oliver Langford</t>
   </si>
   <si>
-    <t>Matt Donohue</t>
-  </si>
-  <si>
-    <t>Leigh Doughty</t>
-  </si>
-  <si>
     <t>James Bell</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
     <t>John Busby</t>
   </si>
   <si>
+    <t>Tony Harrington</t>
+  </si>
+  <si>
     <t>Steve Martin</t>
   </si>
   <si>
@@ -147,9 +153,6 @@
     <t>Simon Hooper</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>34</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>Gavin Ward</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Andy Madley</t>
   </si>
   <si>
+    <t>Farai Hallam</t>
+  </si>
+  <si>
     <t>Thomas Kirk</t>
   </si>
   <si>
@@ -223,9 +232,6 @@
   </si>
   <si>
     <t>Stuart Attwell</t>
-  </si>
-  <si>
-    <t>Tony Harrington</t>
   </si>
   <si>
     <t>Geoff Eltringham</t>
@@ -313,7 +319,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -324,10 +330,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -335,7 +341,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -346,10 +352,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +363,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -368,7 +374,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -379,7 +385,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -390,7 +396,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -401,7 +407,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -412,7 +418,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -423,7 +429,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -434,7 +440,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -445,7 +451,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -456,7 +462,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -467,7 +473,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -478,7 +484,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -489,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -500,7 +506,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -511,7 +517,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -522,9 +528,20 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -555,10 +572,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -566,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -577,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -588,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -599,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -610,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -621,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -643,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -654,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -665,10 +682,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -676,10 +693,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -687,10 +704,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -698,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -709,10 +726,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -720,7 +737,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -731,7 +748,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -742,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" t="n">
         <v>2.0</v>
@@ -753,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
         <v>2.0</v>
@@ -764,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
         <v>2.0</v>
@@ -775,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -783,10 +800,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="e">
-        <v>#N/A</v>
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -794,10 +811,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="B24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C24" t="n">
         <v>2.0</v>
@@ -805,32 +822,32 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -838,10 +855,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -849,10 +866,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -860,10 +877,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -871,10 +888,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -882,10 +899,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -893,10 +910,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
@@ -904,10 +921,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
@@ -915,12 +932,23 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -951,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -973,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -984,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -995,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1006,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1017,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -1028,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1039,10 +1067,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -1050,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1061,7 +1089,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1072,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1083,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1094,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1105,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1116,7 +1144,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -1149,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1160,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1171,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1182,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1204,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1215,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1226,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1259,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -1281,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1292,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -1303,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1314,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1325,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
